--- a/biology/Médecine/Marie_Curie,_une_femme_sur_le_front/Marie_Curie,_une_femme_sur_le_front.xlsx
+++ b/biology/Médecine/Marie_Curie,_une_femme_sur_le_front/Marie_Curie,_une_femme_sur_le_front.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marie Curie, une femme sur le front est un téléfilm dramatique et historique franco-belge réalisé par Alain Brunard, diffusé le 25 avril 2014 sur la RTBF et le 11 novembre 2014 sur France 2.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Curie, prix Nobel de physique et de chimie dirige l'Institut du radium quand, en 1914, la guerre éclate, et comprend que celle-ci sera longue et meurtrière. Elle équipe une première camionnette de matériel de radiographie et se rend sur le site de la bataille de la Marne. L'hôpital de campagne dont elle s'occupe se distingue par le peu de décès enregistrés. En plus de l'aide du docteur Claudius Regaud, un de ses collaborateurs qui travaille sur le traitement du cancer par la radiothérapie, Marie Curie reçoit celle de sa fille âgée de 17 ans, Irène. Elle équipe rapidement d'autres véhicules, surnommées par les soldats « les petites Curie ». Suivant les différents fronts, son œuvre devient reconnue et la radiographie, qui était jusque-là surtout un amusement pour le public, devient une aide précieuse pour la médecine.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Marie Curie, une femme sur le front
 Réalisation : Alain Brunard
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dominique Reymond : Marie Curie
 Fanny Dumont : Irène Curie
@@ -633,7 +651,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Festival du film de télévision de Luchon
 Prix du Public du meilleur téléfilm
@@ -665,7 +685,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cet épisode de la vie de Marie Curie demeure presqu'inconnu du grand public et la savante ne recevra aucune récompense pour son action qui aura permis de sauver un nombre incalculable de soldats blessés. Plus d'un million de blessés ont été secourus grâce à ses installations, dont un millier le fut par Marie Curie elle-même.
 Marie Curie aura pendant la Première Guerre mondiale mis en service dix-huit véhicules équipés de son matériel, installé quelque deux cents postes fixes dans les hôpitaux et formé cent cinquante manipulatrices de radiographie.
